--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Devcode\lottery2\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2ACDDF-6323-4865-A2BB-989E255BA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D05F8-2F03-4109-91F9-CA529B6F98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,15 +583,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -654,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -706,7 +704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -931,805 +929,805 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
+      <c r="A2" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
+      <c r="A3" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>78</v>
+      <c r="A4" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>79</v>
+      <c r="A5" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>80</v>
+      <c r="A6" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
+      <c r="A7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
+      <c r="A8" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
+      <c r="A9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
+      <c r="A10" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
+      <c r="A11" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
+      <c r="A12" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>150</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
+      <c r="A13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>88</v>
+      <c r="A14" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>89</v>
+      <c r="A15" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>151</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>111</v>
+      <c r="A37" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>157</v>
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>112</v>
+      <c r="A38" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>157</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>113</v>
+      <c r="A39" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>114</v>
+      <c r="A40" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>157</v>
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>115</v>
+      <c r="A41" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>116</v>
+      <c r="A42" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>157</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>117</v>
+      <c r="A43" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>158</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>118</v>
+      <c r="A44" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>158</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>119</v>
+      <c r="A45" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>120</v>
+      <c r="A46" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>121</v>
+      <c r="A47" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>158</v>
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>122</v>
+      <c r="A48" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>158</v>
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>123</v>
+      <c r="A49" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>124</v>
+      <c r="A50" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>164</v>
       </c>
     </row>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Devcode\lottery2\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D05F8-2F03-4109-91F9-CA529B6F98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8ED58A-95ED-4C6D-AE23-AABA8BEA1333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
   <si>
     <t>工号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,9 +51,6 @@
     <t>霍妙婷</t>
   </si>
   <si>
-    <t>廖丽桢</t>
-  </si>
-  <si>
     <t>何宪国</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>卢诗敏</t>
   </si>
   <si>
-    <t>蒙桂英</t>
-  </si>
-  <si>
     <t>苏静怡</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>伍昇权</t>
   </si>
   <si>
-    <t>许家文</t>
-  </si>
-  <si>
     <t>陈伟</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>申艳华</t>
   </si>
   <si>
-    <t>石丽卡</t>
-  </si>
-  <si>
     <t>宋爱娟</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>陈燕霞</t>
   </si>
   <si>
-    <t>廖燕清</t>
-  </si>
-  <si>
     <t>邹静康</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
     <t>郭敏鸿</t>
   </si>
   <si>
-    <t>徐焱</t>
-  </si>
-  <si>
     <t>10000155</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
     <t>10000168</t>
   </si>
   <si>
-    <t>10000009</t>
-  </si>
-  <si>
     <t>10000003</t>
   </si>
   <si>
@@ -282,9 +261,6 @@
     <t>10000005</t>
   </si>
   <si>
-    <t>10000004</t>
-  </si>
-  <si>
     <t>10000014</t>
   </si>
   <si>
@@ -330,9 +306,6 @@
     <t>10000024</t>
   </si>
   <si>
-    <t>10000025</t>
-  </si>
-  <si>
     <t>10000029</t>
   </si>
   <si>
@@ -444,9 +417,6 @@
     <t>10000062</t>
   </si>
   <si>
-    <t>10000066</t>
-  </si>
-  <si>
     <t>10000063</t>
   </si>
   <si>
@@ -462,9 +432,6 @@
     <t>10000068</t>
   </si>
   <si>
-    <t>10000069</t>
-  </si>
-  <si>
     <t>10000070</t>
   </si>
   <si>
@@ -472,9 +439,6 @@
   </si>
   <si>
     <t>10000072</t>
-  </si>
-  <si>
-    <t>10000073</t>
   </si>
   <si>
     <t>业务部</t>
@@ -906,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -930,805 +894,739 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Devcode\lottery2\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8ED58A-95ED-4C6D-AE23-AABA8BEA1333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656D101-9A3F-477F-9328-40D2AB92611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,12 +524,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -547,7 +553,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +561,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -872,20 +882,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="26.75" style="1"/>
+    <col min="1" max="1" width="26.75" style="1"/>
+    <col min="2" max="2" width="26.75" style="4"/>
+    <col min="3" max="16384" width="26.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -896,7 +908,7 @@
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -907,7 +919,7 @@
       <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -918,7 +930,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -929,7 +941,7 @@
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -940,7 +952,7 @@
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -951,7 +963,7 @@
       <c r="A7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -962,7 +974,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -973,7 +985,7 @@
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -984,7 +996,7 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -995,7 +1007,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1006,7 +1018,7 @@
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1017,7 +1029,7 @@
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1028,7 +1040,7 @@
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1039,7 +1051,7 @@
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1050,7 +1062,7 @@
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1061,7 +1073,7 @@
       <c r="A17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1072,7 +1084,7 @@
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1083,7 +1095,7 @@
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1094,7 +1106,7 @@
       <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1105,7 +1117,7 @@
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1116,7 +1128,7 @@
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1127,7 +1139,7 @@
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1138,7 +1150,7 @@
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1147,32 +1159,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>143</v>
@@ -1180,10 +1192,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>143</v>
@@ -1191,10 +1203,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>94</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>143</v>
@@ -1202,10 +1214,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>143</v>
@@ -1213,10 +1225,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>143</v>
@@ -1224,10 +1236,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>143</v>
@@ -1235,21 +1247,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>144</v>
@@ -1257,10 +1269,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>144</v>
@@ -1268,21 +1280,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>138</v>
@@ -1292,7 +1304,7 @@
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1303,7 +1315,7 @@
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1314,7 +1326,7 @@
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1325,7 +1337,7 @@
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1336,7 +1348,7 @@
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1347,7 +1359,7 @@
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1358,7 +1370,7 @@
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1369,7 +1381,7 @@
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1380,7 +1392,7 @@
       <c r="A46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1391,7 +1403,7 @@
       <c r="A47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1402,7 +1414,7 @@
       <c r="A48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1413,7 +1425,7 @@
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1424,7 +1436,7 @@
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1435,7 +1447,7 @@
       <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1446,7 +1458,7 @@
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1457,7 +1469,7 @@
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1468,7 +1480,7 @@
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1479,7 +1491,7 @@
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1490,7 +1502,7 @@
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1501,7 +1513,7 @@
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1512,7 +1524,7 @@
       <c r="A58" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1523,7 +1535,7 @@
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1534,7 +1546,7 @@
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1545,7 +1557,7 @@
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1556,7 +1568,7 @@
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1567,7 +1579,7 @@
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1578,7 +1590,7 @@
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1589,7 +1601,7 @@
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1600,7 +1612,7 @@
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -1611,7 +1623,7 @@
       <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1622,7 +1634,7 @@
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="2" t="s">
